--- a/biology/Botanique/Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington/Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington.xlsx
+++ b/biology/Botanique/Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington/Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici une liste — non exhaustive — d'espèces en danger, citées dans l'annexe I de la Convention de Washington (CITES)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici une liste — non exhaustive — d'espèces en danger, citées dans l'annexe I de la Convention de Washington (CITES).
 Voir aussi Catégorie:CITES annexe I.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,22 +526,173 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dans la famille des Agavaceae
-Agave parviflora
-Dans la famille des Apocynaceae
-Pachypodium ambongense, Pachypodium baronii et Pachypodium decaryi 
-Dans la famille des Araucariaceae
-Araucaria araucana (Araucaria du Chili ou Désespoir des singes)
-Dans la famille des Cactaceae
-Genres complets
-Ariocarpus
+          <t>Dans la famille des Agavaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agave parviflora
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dans la famille des Apocynaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pachypodium ambongense, Pachypodium baronii et Pachypodium decaryi 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dans la famille des Araucariaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araucaria araucana (Araucaria du Chili ou Désespoir des singes)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans la famille des Cactaceae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Genres complets</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ariocarpus
 Discocactus
 Pelecyphora
 Strombocactus
 Turbinicarpus
-Uebelmannia
-Espèces
-Astrophytum asterias
+Uebelmannia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans la famille des Cactaceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Astrophytum asterias
 Aztekium ritteri
 Coryphantha werdermannii
 Echinocereus schmollii
@@ -539,42 +702,116 @@
 Obregonia denegrii
 Pachycereus militaris
 Pediocactus bradyi, Pediocactus knowltonii, Pediocactus paradinei, Pediocactus peeblesianus et Pediocactus sileri
-Sclerocactus erectocentrus, Sclerocactus glaucus, Sclerocactus mariposensis, Sclerocactus mesae-verdae, Sclerocactus nyensis, Sclerocactus papyracanthus, Sclerocactus pubispinus et Sclerocactus wrightiae
-Sous-espèces
-Echinocereus ferreirianus ssp. lindsayi
-Sclerocactus brevihamatus ssp. tobuschii
-Dans la famille des Pinaceae
-Abies guatemalensis (Sapin du Guatemala)
+Sclerocactus erectocentrus, Sclerocactus glaucus, Sclerocactus mariposensis, Sclerocactus mesae-verdae, Sclerocactus nyensis, Sclerocactus papyracanthus, Sclerocactus pubispinus et Sclerocactus wrightiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans la famille des Cactaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Echinocereus ferreirianus ssp. lindsayi
+Sclerocactus brevihamatus ssp. tobuschii</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans la famille des Pinaceae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Abies guatemalensis (Sapin du Guatemala)
 Widdringtonia cedarbergensis (Cèdre du Cap, famille des cyprès)
 Widdringtonia whitei (Cèdre de montagne)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Quatre espèces de papillons : 
 Ornithoptera alexandrae
@@ -582,31 +819,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Poissons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Acoupa de MacDonald : Totoaba macdonaldi
 Barbeau de Julien : Probarbus jullieni
@@ -618,62 +857,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Amphibiens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Crapaud rouge de Madagascar : Dyscophus antongilii
 Grenouille arbricole de Romer : Philautus romeri</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Reptiles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Alligator de Chine : Alligator sinensis
 Boa constrictor :  constrictor
@@ -688,31 +931,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Oiseaux</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Aigle des singes : Pithecophaga jefferyi
 Albatros de Steller : Diomedea albatrus
@@ -757,31 +1002,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_menacées_d'après_l'Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_menac%C3%A9es_d%27apr%C3%A8s_l%27Annexe_I_de_la_Convention_de_Washington</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Mammifères</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Antilocapre : Antilocapra americana
 Atèle : Ateles geoffroyi
